--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2271.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2271.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149465188039231</v>
+        <v>1.22420346736908</v>
       </c>
       <c r="B1">
-        <v>2.498588112736083</v>
+        <v>2.699114561080933</v>
       </c>
       <c r="C1">
-        <v>5.217745185130163</v>
+        <v>4.250983238220215</v>
       </c>
       <c r="D1">
-        <v>2.816905892459101</v>
+        <v>2.138493537902832</v>
       </c>
       <c r="E1">
-        <v>1.223400504995951</v>
+        <v>1.157812118530273</v>
       </c>
     </row>
   </sheetData>
